--- a/Data/Modeling Stage/Feature Selection/R_Gonz_feature_selection_Date_threshold_33_no_test_no_assign.xlsx
+++ b/Data/Modeling Stage/Feature Selection/R_Gonz_feature_selection_Date_threshold_33_no_test_no_assign.xlsx
@@ -65,91 +65,91 @@
     <t>Days with no interaction</t>
   </si>
   <si>
+    <t>Clicks (% of course total)</t>
+  </si>
+  <si>
     <t>Submissions (% of course total)</t>
   </si>
   <si>
-    <t>Clicks (% of course total)</t>
-  </si>
-  <si>
     <t>Average session duration (min)</t>
   </si>
   <si>
     <t>Start of Session 3 (%)</t>
   </si>
   <si>
+    <t>Quizzes started</t>
+  </si>
+  <si>
+    <t>Clicks per session</t>
+  </si>
+  <si>
+    <t>Clicks per day</t>
+  </si>
+  <si>
+    <t>Start of Session 1 (%)</t>
+  </si>
+  <si>
+    <t>Number of days</t>
+  </si>
+  <si>
+    <t>Clicks on folder</t>
+  </si>
+  <si>
+    <t>Clicks on course</t>
+  </si>
+  <si>
+    <t>Resources viewed</t>
+  </si>
+  <si>
+    <t>Start of Session 4 (%)</t>
+  </si>
+  <si>
+    <t>Days with no interaction (%)</t>
+  </si>
+  <si>
     <t>Start of Session 2 (%)</t>
   </si>
   <si>
-    <t>Clicks per session</t>
-  </si>
-  <si>
-    <t>Clicks per day</t>
-  </si>
-  <si>
-    <t>Number of days</t>
-  </si>
-  <si>
-    <t>Start of Session 1 (%)</t>
-  </si>
-  <si>
-    <t>Clicks on folder</t>
-  </si>
-  <si>
-    <t>Clicks on course</t>
-  </si>
-  <si>
-    <t>Quizzes started</t>
-  </si>
-  <si>
-    <t>Resources viewed</t>
-  </si>
-  <si>
-    <t>Days with no interaction (%)</t>
-  </si>
-  <si>
     <t>Start of Session 8 (%)</t>
   </si>
   <si>
+    <t>Files downloaded</t>
+  </si>
+  <si>
+    <t>Links viewed</t>
+  </si>
+  <si>
+    <t>Discussions viewed</t>
+  </si>
+  <si>
     <t>Assignments viewed</t>
   </si>
   <si>
-    <t>Links viewed</t>
+    <t>Assignments submitted</t>
+  </si>
+  <si>
+    <t>Start of Session 7 (%)</t>
   </si>
   <si>
     <t>Start of Session 6 (%)</t>
   </si>
   <si>
-    <t>Start of Session 4 (%)</t>
-  </si>
-  <si>
-    <t>Discussions viewed</t>
-  </si>
-  <si>
-    <t>Assignments submitted</t>
-  </si>
-  <si>
     <t>Forum posts</t>
   </si>
   <si>
-    <t>Files downloaded</t>
+    <t>Number of sessions</t>
   </si>
   <si>
     <t>Start of Session 10 (%)</t>
   </si>
   <si>
-    <t>Start of Session 7 (%)</t>
+    <t>Start of Session 9 (%)</t>
   </si>
   <si>
     <t>Start of Session 5 (%)</t>
   </si>
   <si>
     <t>Clicks on forum</t>
-  </si>
-  <si>
-    <t>Number of sessions</t>
-  </si>
-  <si>
-    <t>Start of Session 9 (%)</t>
   </si>
 </sst>
 </file>
@@ -876,13 +876,13 @@
         <v>1</v>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
       </c>
       <c r="F12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
@@ -1100,13 +1100,13 @@
         <v>1</v>
       </c>
       <c r="D19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="b">
         <v>1</v>
       </c>
       <c r="F19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" t="b">
         <v>1</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1199,19 +1199,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
       </c>
       <c r="I22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>4</v>
@@ -1222,7 +1222,7 @@
         <v>31</v>
       </c>
       <c r="B23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="b">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" t="b">
         <v>1</v>
       </c>
       <c r="I23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1292,13 +1292,13 @@
         <v>1</v>
       </c>
       <c r="D25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
       </c>
       <c r="F25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
@@ -1324,13 +1324,13 @@
         <v>1</v>
       </c>
       <c r="D26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
       </c>
       <c r="F26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
@@ -1350,13 +1350,13 @@
         <v>35</v>
       </c>
       <c r="B27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
@@ -1374,7 +1374,7 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" t="b">
         <v>1</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1417,16 +1417,16 @@
         <v>0</v>
       </c>
       <c r="C29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
       </c>
       <c r="F29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1449,16 +1449,16 @@
         <v>0</v>
       </c>
       <c r="C30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
       </c>
       <c r="F30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1481,10 +1481,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
@@ -1513,7 +1513,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32" t="b">
         <v>0</v>
@@ -1522,7 +1522,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
@@ -1609,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35" t="b">
         <v>0</v>
@@ -1630,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="J35">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -1641,7 +1641,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36" t="b">
         <v>0</v>
@@ -1662,7 +1662,7 @@
         <v>0</v>
       </c>
       <c r="J36">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1872,7 +1872,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -2032,7 +2032,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
@@ -2044,19 +2044,19 @@
         <v>0</v>
       </c>
       <c r="E12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>5</v>
@@ -2064,7 +2064,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
@@ -2096,7 +2096,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
@@ -2128,7 +2128,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
@@ -2160,7 +2160,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
@@ -2192,7 +2192,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
@@ -2224,7 +2224,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B18" t="b">
         <v>1</v>
@@ -2239,7 +2239,7 @@
         <v>1</v>
       </c>
       <c r="F18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
@@ -2251,12 +2251,12 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B19" t="b">
         <v>1</v>
@@ -2268,10 +2268,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
@@ -2288,7 +2288,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B20" t="b">
         <v>0</v>
@@ -2300,19 +2300,19 @@
         <v>0</v>
       </c>
       <c r="E20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" t="b">
         <v>1</v>
       </c>
       <c r="I20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20">
         <v>4</v>
@@ -2320,16 +2320,16 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="B21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="b">
         <v>1</v>
       </c>
       <c r="D21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
@@ -2352,7 +2352,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B22" t="b">
         <v>0</v>
@@ -2361,7 +2361,7 @@
         <v>1</v>
       </c>
       <c r="D22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
@@ -2379,12 +2379,12 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
@@ -2393,13 +2393,13 @@
         <v>1</v>
       </c>
       <c r="D23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
       </c>
       <c r="F23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
@@ -2416,7 +2416,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
@@ -2480,7 +2480,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -2512,7 +2512,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -2544,22 +2544,22 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
       </c>
       <c r="C28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
       </c>
       <c r="F28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
@@ -2571,18 +2571,18 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29" t="b">
         <v>0</v>
@@ -2591,7 +2591,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
@@ -2603,12 +2603,12 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -2640,13 +2640,13 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
       </c>
       <c r="C31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31" t="b">
         <v>0</v>
@@ -2655,7 +2655,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
@@ -2672,7 +2672,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -2704,7 +2704,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -2736,7 +2736,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -2768,7 +2768,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B35" t="b">
         <v>0</v>
@@ -2800,7 +2800,7 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B36" t="b">
         <v>0</v>
